--- a/static/grdo/GRDO_TimeseriesData_Template.xlsx
+++ b/static/grdo/GRDO_TimeseriesData_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joanna\Dropbox (Duke Bio_Ea)\FLBS\Research\Hypoxia\Global Hypoxia\Database Building\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joanna\Dropbox (Duke Bio_Ea)\FLBS\Research\Hypoxia\Global Hypoxia Database\Database Building\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E7BE97-FE9F-44A0-ABB4-0F1AC20C8854}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D643953-A662-4B94-B039-DF26FE672829}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" xr2:uid="{3F93F5C4-38DA-4095-8EEF-1C92B6248E7D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" activeTab="1" xr2:uid="{3F93F5C4-38DA-4095-8EEF-1C92B6248E7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="54">
   <si>
     <t>DateTime</t>
   </si>
@@ -48,9 +48,6 @@
     <t>4) Save the file with your changes, and upload at: https://data.streampulse.org/grdo_filedrop</t>
   </si>
   <si>
-    <t>INSTRUCTIONS FOR GLOBAL RIVER DISSOLVED OXYGEN DATABASE UPLOAD: Time Series Data</t>
-  </si>
-  <si>
     <t>BlaineCreekMT</t>
   </si>
   <si>
@@ -78,104 +75,121 @@
     <t>Column Name Explanations:</t>
   </si>
   <si>
+    <t>Column Name</t>
+  </si>
+  <si>
+    <t>Required vs. Optional Data</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Required</t>
+  </si>
+  <si>
+    <t>Optional</t>
+  </si>
+  <si>
+    <t>Required if no DO_psat</t>
+  </si>
+  <si>
+    <t>Required if no DO_mgL</t>
+  </si>
+  <si>
+    <t>Date and Time in the format "MM/DD/YYYY HH:MM"". If you only have a date, use the format "MM/DD/YYYY"</t>
+  </si>
+  <si>
+    <t>L/s</t>
+  </si>
+  <si>
+    <t>Baro Pressure</t>
+  </si>
+  <si>
+    <t>Baro Units</t>
+  </si>
+  <si>
+    <t>Copy and paste the dissolved oxygen measurements in mg/L (ppm) that correspond to the correct time stamp. This column is required if no DO in % saturation is reported.</t>
+  </si>
+  <si>
+    <t>Copy and paste the dissolved oxygen measurements in % saturation that correspond to the correct time stamp. This column is required if no DO in mg/L is reported.</t>
+  </si>
+  <si>
+    <t>Streamwater tempature in degrees Celsius</t>
+  </si>
+  <si>
+    <t>Discharge at the corresponding time stamp</t>
+  </si>
+  <si>
+    <t>Units of discharge</t>
+  </si>
+  <si>
+    <t>Measured stage at the corresponding time stamp</t>
+  </si>
+  <si>
+    <t>Units of stage</t>
+  </si>
+  <si>
+    <t>Barometric pressure at the corresponding time stamp</t>
+  </si>
+  <si>
+    <t>Units of barometric pressure</t>
+  </si>
+  <si>
+    <t>Salinity_PSU</t>
+  </si>
+  <si>
+    <t>mmHg</t>
+  </si>
+  <si>
+    <t>Salinity of water in PSU. Default is 0 for freshwater</t>
+  </si>
+  <si>
+    <t>UTC_TimeZone</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Welcome! And thank you for contributing to the global river oxygen database (GRDO). We are a group of river ecologists and biogeochemists interested in the spatial and temporal extent of hypoxia in rivers around the globe. Please see the data portal at https://data.streampulse.org/grdo_filedrop for more information about the project.
-This excel template is a guide to how we would like you to structure your </t>
+      <t xml:space="preserve">Copy your Site ID here </t>
     </r>
     <r>
       <rPr>
-        <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>time series data.</t>
+      <t>**MATCH WITH SITE ID IN METADATA**</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Please copy and paste your time series data into this template (see next tab) before uploading your data. We would like one metadata file for all sites, and as many separate data files as needed for time series data from corresponding sites. See "GRDO_MetaData_Template.xlsx" for how to structure your metadata (site information).
-Please contact Joanna Blaszczak (joanna.blaszczak@flbs.umt.edu or +1-406-872-4505) with any questions. Thank you!</t>
+      <t xml:space="preserve"> (especially if multiple sites in one file)</t>
     </r>
   </si>
   <si>
-    <t>1) Please save this time series data file (see next tab) in the format "YourLastName or Organization_SiteName_TS.xlsx" (e.g. Blaszczak_BlaineCreek_TS.xlsx or NWIS_01021050_TS.xlsx). Create a separate file for each different stream or river (site).</t>
-  </si>
-  <si>
-    <t>Column Name</t>
-  </si>
-  <si>
-    <t>Required vs. Optional Data</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Required</t>
-  </si>
-  <si>
-    <t>Optional</t>
-  </si>
-  <si>
-    <t>Required if no DO_psat</t>
-  </si>
-  <si>
-    <t>Required if no DO_mgL</t>
-  </si>
-  <si>
-    <t>Date and Time in the format "MM/DD/YYYY HH:MM"". If you only have a date, use the format "MM/DD/YYYY"</t>
-  </si>
-  <si>
-    <t>L/s</t>
-  </si>
-  <si>
-    <t>Baro Pressure</t>
-  </si>
-  <si>
-    <t>Baro Units</t>
-  </si>
-  <si>
-    <t>Copy and paste the dissolved oxygen measurements in mg/L (ppm) that correspond to the correct time stamp. This column is required if no DO in % saturation is reported.</t>
-  </si>
-  <si>
-    <t>Copy and paste the dissolved oxygen measurements in % saturation that correspond to the correct time stamp. This column is required if no DO in mg/L is reported.</t>
-  </si>
-  <si>
-    <t>Streamwater tempature in degrees Celsius</t>
-  </si>
-  <si>
-    <t>Discharge at the corresponding time stamp</t>
-  </si>
-  <si>
-    <t>Units of discharge</t>
-  </si>
-  <si>
-    <t>Measured stage at the corresponding time stamp</t>
-  </si>
-  <si>
-    <t>Units of stage</t>
-  </si>
-  <si>
-    <t>Barometric pressure at the corresponding time stamp</t>
-  </si>
-  <si>
-    <t>Units of barometric pressure</t>
-  </si>
-  <si>
-    <t>Salinity_PSU</t>
-  </si>
-  <si>
-    <t>mmHg</t>
-  </si>
-  <si>
-    <t>Salinity of water in PSU. Default is 0 for freshwater</t>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>Depth Units</t>
+  </si>
+  <si>
+    <t>Mean reach scale depth</t>
+  </si>
+  <si>
+    <t>Units of depth</t>
+  </si>
+  <si>
+    <t>Stage above arbitrary datum</t>
+  </si>
+  <si>
+    <t>INSTRUCTIONS FOR GLOBAL RIVER DISSOLVED OXYGEN DATABASE UPLOAD: Time series Data</t>
+  </si>
+  <si>
+    <t>1) Please save this time series data file (see next tab) in the format "YourLastName or Organization_SiteName_TS.xlsx" (e.g. Blaszczak_BlaineCreek_TS.xlsx or NWIS_01021050_TS.xlsx). Multiple sites can be included in one time series file as long as (1) the corresponding Site ID is specified for each row and (2) the Site IDs match those specified in the metadata file. This approach might be advantageous for spatially intensive data sets (e.g. 10-20 measurements across &gt; 10 sites).</t>
   </si>
   <si>
     <r>
@@ -202,30 +216,61 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: (1) Site Name, (2) DateTime or Date depending on the temporal resolution of your data (please follow the time format in the examples), (3) Time zone of data, (4) DO_mgL (dissolved oxygen measured in mg/L) or DO_psat (dissolved oxygen measured as % saturation), (5) water temperature in degrees Celsius (WaterTempC)</t>
+      <t>: (1) Site ID, (2) DateTime or Date depending on the temporal resolution of your data (please follow the time format in the examples), (3) Time zone relative to UTC, (4) DO_mgL (dissolved oxygen measured in mg/L) or DO_psat (dissolved oxygen measured as % saturation), (5) water temperature in degrees Celsius (WaterTempC)</t>
     </r>
   </si>
   <si>
-    <t>UTC_TimeZone</t>
-  </si>
-  <si>
-    <t>UTC -6</t>
-  </si>
-  <si>
-    <t>Time zone of data in relation to UTC</t>
-  </si>
-  <si>
-    <t>Site ID</t>
-  </si>
-  <si>
-    <t>Copy your Site ID here</t>
+    <t>Time zone of data in relation to UTC (e.g. -7) ** Be sure to account for daylight savings time if the sensor time was adjusted for daylights savings</t>
+  </si>
+  <si>
+    <t>Does stage = channel depth?</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Y = yes, N = no. In other words, does stage represent water depth at the sensor, or is it relative to an arbitrary value?</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>SiteID</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Welcome! And thank you for contributing to the global river oxygen database (GRDO). We are a group of river ecologists and biogeochemists interested in the spatial and temporal extent of hypoxia in rivers around the globe. Please see the data portal at https://data.streampulse.org/grdo_filedrop for more information about the project.
+This excel template is a guide to how we would like you to structure your </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>time series data.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Please copy and paste your time series data into this template (see next tab) before uploading your data. Time series data can be combined or uploaded as separate data files as long as Site ID information is provided which matches a Site ID in the metadata file. We would like one metadata file for all sites. See "GRDO_MetaData_Template.xlsx" for how to structure your metadata (site information).
+Please contact Joanna Blaszczak (joanna.blaszczak@flbs.umt.edu or +1-406-872-4505) with any questions or if you have an exceptionally large data set. Thank you!</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,9 +327,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color theme="0" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -292,7 +335,15 @@
     <font>
       <i/>
       <sz val="11"/>
-      <color theme="0" tint="-0.499984740745262"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -384,7 +435,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -398,14 +449,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="22" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="22" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -744,15 +799,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E331AD4-4A09-45B4-BBC3-71D0E6B7B8F3}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:I14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.21875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.77734375" style="1" customWidth="1"/>
     <col min="3" max="7" width="8.88671875" style="1"/>
     <col min="8" max="8" width="47.33203125" style="1" customWidth="1"/>
@@ -760,346 +815,397 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-    </row>
-    <row r="2" spans="1:9" ht="136.80000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
+      <c r="A1" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+    </row>
+    <row r="2" spans="1:9" ht="148.80000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-    </row>
-    <row r="4" spans="1:9" ht="34.799999999999997" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+    </row>
+    <row r="4" spans="1:9" ht="48" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
     </row>
     <row r="5" spans="1:9" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
+      <c r="A5" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
+      <c r="A6" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+    </row>
+    <row r="12" spans="1:9" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-    </row>
-    <row r="12" spans="1:9" ht="58.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="B12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="15" t="s">
+      <c r="C13" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+    </row>
+    <row r="15" spans="1:9" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+    </row>
+    <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="13" t="s">
+      <c r="C16" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+    </row>
+    <row r="17" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-    </row>
-    <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-    </row>
-    <row r="17" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
+      <c r="C17" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
+      <c r="A18" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
+        <v>18</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
+        <v>18</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
+        <v>18</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
+        <v>18</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
+        <v>18</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
+        <v>18</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
+        <v>18</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="25">
     <mergeCell ref="A6:H6"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
@@ -1113,14 +1219,17 @@
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="A11:H11"/>
     <mergeCell ref="C15:I15"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="C27:I27"/>
+    <mergeCell ref="C28:I28"/>
     <mergeCell ref="C25:I25"/>
-    <mergeCell ref="C22:I22"/>
     <mergeCell ref="C17:I17"/>
     <mergeCell ref="C18:I18"/>
     <mergeCell ref="C19:I19"/>
     <mergeCell ref="C20:I20"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="C22:I22"/>
+    <mergeCell ref="C23:I23"/>
     <mergeCell ref="C21:I21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1130,523 +1239,650 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C101659F-4A4A-4071-9485-A92F128937B4}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.21875" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.21875" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="9"/>
+    <col min="1" max="1" width="14" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.21875" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.21875" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.21875" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11" style="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="8" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="8" t="s">
+      <c r="C1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="8" t="s">
+      <c r="F1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="11">
+      <c r="N1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="10">
         <v>43328.520833333328</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="7">
+      <c r="C2" s="11">
+        <v>-6</v>
+      </c>
+      <c r="D2" s="12">
         <v>9.5798009999999998</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="7">
+      <c r="E2" s="9"/>
+      <c r="F2" s="12">
         <v>17.682971999999999</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="9">
         <v>33.9</v>
       </c>
-      <c r="H2" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="12">
+      <c r="H2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="9">
+        <v>0.24</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="13">
         <v>764.7</v>
       </c>
-      <c r="L2" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="M2" s="10">
+      <c r="O2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="11">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="10">
         <v>43328.524305555555</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="7">
+      <c r="C3" s="11">
+        <v>-6</v>
+      </c>
+      <c r="D3" s="12">
         <v>9.5842089999999995</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="7">
+      <c r="E3" s="9"/>
+      <c r="F3" s="12">
         <v>17.767133000000001</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="9">
         <v>33.9</v>
       </c>
-      <c r="H3" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="12">
+      <c r="H3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="9">
+        <v>0.24</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="13">
         <v>764.7</v>
       </c>
-      <c r="L3" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="M3" s="10">
+      <c r="O3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="11">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="10">
         <v>43328.527777777774</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="7">
+      <c r="C4" s="11">
+        <v>-6</v>
+      </c>
+      <c r="D4" s="12">
         <v>9.6297069999999998</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="7">
+      <c r="E4" s="9"/>
+      <c r="F4" s="12">
         <v>17.851251000000001</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="9">
         <v>33.9</v>
       </c>
-      <c r="H4" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="12">
+      <c r="H4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="9">
+        <v>0.24</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="13">
         <v>764.7</v>
       </c>
-      <c r="L4" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="M4" s="10">
+      <c r="O4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="P4" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="11">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="10">
         <v>43328.53125</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="7">
+      <c r="C5" s="11">
+        <v>-6</v>
+      </c>
+      <c r="D5" s="12">
         <v>9.6513120000000008</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="7">
+      <c r="E5" s="9"/>
+      <c r="F5" s="12">
         <v>17.884886000000002</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="9">
         <v>33.9</v>
       </c>
-      <c r="H5" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="12">
+      <c r="H5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="9">
+        <v>0.24</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="13">
         <v>764.7</v>
       </c>
-      <c r="L5" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="M5" s="10">
+      <c r="O5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="P5" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="11">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10">
         <v>43328.534722222219</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="7">
+      <c r="C6" s="11">
+        <v>-6</v>
+      </c>
+      <c r="D6" s="12">
         <v>9.6399869999999996</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="7">
+      <c r="E6" s="9"/>
+      <c r="F6" s="12">
         <v>17.918514999999999</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="9">
         <v>33.9</v>
       </c>
-      <c r="H6" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="12">
+      <c r="H6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="9">
+        <v>0.24</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="13">
         <v>764.66666666666697</v>
       </c>
-      <c r="L6" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="M6" s="10">
+      <c r="O6" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="P6" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="11">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="10">
         <v>43328.538194444445</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="7">
+      <c r="C7" s="11">
+        <v>-6</v>
+      </c>
+      <c r="D7" s="12">
         <v>9.6451550000000008</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="7">
+      <c r="E7" s="9"/>
+      <c r="F7" s="12">
         <v>17.952137</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="9">
         <v>33.9</v>
       </c>
-      <c r="H7" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="12">
+      <c r="H7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="9">
+        <v>0.24</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="13">
         <v>764.63333333333298</v>
       </c>
-      <c r="L7" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="M7" s="10">
+      <c r="O7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="P7" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="11">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="10">
         <v>43328.541666666664</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="7">
+      <c r="C8" s="11">
+        <v>-6</v>
+      </c>
+      <c r="D8" s="12">
         <v>9.6366790000000009</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="7">
+      <c r="E8" s="9"/>
+      <c r="F8" s="12">
         <v>17.977349</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="9">
         <v>33.9</v>
       </c>
-      <c r="H8" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="12">
+      <c r="H8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" s="9">
+        <v>0.24</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="13">
         <v>764.6</v>
       </c>
-      <c r="L8" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="M8" s="10">
+      <c r="O8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="P8" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="11">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="10">
         <v>43328.545138888883</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="7">
+      <c r="C9" s="11">
+        <v>-6</v>
+      </c>
+      <c r="D9" s="12">
         <v>9.6364490000000007</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="7">
+      <c r="E9" s="9"/>
+      <c r="F9" s="12">
         <v>18.002558000000001</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="9">
         <v>33.9</v>
       </c>
-      <c r="H9" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="12">
+      <c r="H9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="9">
+        <v>0.24</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="13">
         <v>764.6</v>
       </c>
-      <c r="L9" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="M9" s="10">
+      <c r="O9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="P9" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="11">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="10">
         <v>43328.548611111109</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="7">
+      <c r="C10" s="11">
+        <v>-6</v>
+      </c>
+      <c r="D10" s="12">
         <v>9.6308089999999993</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="7">
+      <c r="E10" s="9"/>
+      <c r="F10" s="12">
         <v>18.019361</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="9">
         <v>33.9</v>
       </c>
-      <c r="H10" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="12">
+      <c r="H10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="9">
+        <v>0.24</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="13">
         <v>764.6</v>
       </c>
-      <c r="L10" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="M10" s="10">
+      <c r="O10" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="P10" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="11">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="10">
         <v>43328.552083275463</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="7">
+      <c r="C11" s="11">
+        <v>-6</v>
+      </c>
+      <c r="D11" s="12">
         <v>9.6305899999999998</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="7">
+      <c r="E11" s="9"/>
+      <c r="F11" s="12">
         <v>18.044564000000001</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="9">
         <v>33.9</v>
       </c>
-      <c r="H11" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="12">
+      <c r="H11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" s="9">
+        <v>0.24</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="13">
         <v>764.6</v>
       </c>
-      <c r="L11" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="M11" s="10">
+      <c r="O11" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="P11" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="11">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="10">
         <v>43328.555555497682</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="7">
+      <c r="C12" s="11">
+        <v>-6</v>
+      </c>
+      <c r="D12" s="12">
         <v>9.6083069999999999</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="7">
+      <c r="E12" s="9"/>
+      <c r="F12" s="12">
         <v>18.086559999999999</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="9">
         <v>33.9</v>
       </c>
-      <c r="H12" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="12">
+      <c r="H12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="J12" s="9">
+        <v>0.24</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="13">
         <v>764.6</v>
       </c>
-      <c r="L12" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="M12" s="10">
+      <c r="O12" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="P12" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="11">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="10">
         <v>43328.559027719908</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="7">
+      <c r="C13" s="11">
+        <v>-6</v>
+      </c>
+      <c r="D13" s="12">
         <v>9.6271629999999995</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="7">
+      <c r="E13" s="9"/>
+      <c r="F13" s="12">
         <v>18.128546</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="9">
         <v>33.9</v>
       </c>
-      <c r="H13" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="12">
+      <c r="H13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="J13" s="9">
+        <v>0.24</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="13">
         <v>764.6</v>
       </c>
-      <c r="L13" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="M13" s="10">
+      <c r="O13" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="P13" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="11">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="10">
         <v>43328.562499942127</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="7">
+      <c r="C14" s="11">
+        <v>-6</v>
+      </c>
+      <c r="D14" s="12">
         <v>9.6129510000000007</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="7">
+      <c r="E14" s="9"/>
+      <c r="F14" s="12">
         <v>18.195703000000002</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="9">
         <v>33.9</v>
       </c>
-      <c r="H14" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="12">
+      <c r="H14" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="J14" s="9">
+        <v>0.24</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="13">
         <v>764.6</v>
       </c>
-      <c r="L14" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="M14" s="10">
+      <c r="O14" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="P14" s="9">
         <v>0</v>
       </c>
     </row>
